--- a/pred_ohlcv/54_21/2019-10-22 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 BAT ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-43474.39359682539</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-43474.39359682539</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-46859.39179682539</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-38652.45508895137</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-18011.67158895137</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-18011.67158895137</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4933.053888951368</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-8533.053888951368</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1173.515511048632</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>198.3481110486321</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>305.3481110486321</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>305.3481110486321</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>13867.42421104863</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>7997.167111048632</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>7997.167111048632</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2087.076411048633</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-21001.93088895137</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-19769.98298895137</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-13954.18818895137</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-13977.99188895137</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>3140.619111048631</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>3140.619111048631</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>39089.4481189623</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>38986.1589189623</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>38986.1589189623</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-22 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 BAT ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-43474.39359682539</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-43474.39359682539</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-46859.39179682539</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-46859.39179682539</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-45759.39179682539</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-45370.37189682539</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-46370.37189682539</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-38652.45508895137</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-51843.89438895137</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-51843.89438895137</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-18011.67158895137</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-18011.67158895137</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4933.053888951368</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-8533.053888951368</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1173.515511048632</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>198.3481110486321</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>305.3481110486321</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>305.3481110486321</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>13867.42421104863</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>7997.167111048632</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>7997.167111048632</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2087.076411048633</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-21001.93088895137</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-19769.98298895137</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-13954.18818895137</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-13977.99188895137</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>3140.619111048631</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>3140.619111048631</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>39089.4481189623</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>38986.1589189623</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>38986.1589189623</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
